--- a/actionParams/actionParamsList_protocolCore.xlsx
+++ b/actionParams/actionParamsList_protocolCore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\actionParams\actionParams_protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\actionParams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE80D4-CE3B-4569-BA3B-AFE7406FABAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D8D0A-CA49-4117-8110-07348B75C229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Codice</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Payload di risposta per Azioni(campo/bottone di finestra)</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>manca</t>
   </si>
 </sst>
 </file>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +609,7 @@
     <col min="4" max="4" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,14 +622,20 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -633,8 +648,11 @@
       <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -647,8 +665,11 @@
       <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -661,8 +682,11 @@
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -675,8 +699,11 @@
       <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -689,8 +716,11 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -703,20 +733,23 @@
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
